--- a/Dokument/Gantt-schema/Gantt-schema.xlsx
+++ b/Dokument/Gantt-schema/Gantt-schema.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Milstolpar och aktiviteter" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Milstolpar och aktiviteter</t>
   </si>
@@ -31,9 +31,6 @@
     <t>veckonr</t>
   </si>
   <si>
-    <t>Planering</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Projektplan</t>
   </si>
   <si>
@@ -44,13 +41,58 @@
   </si>
   <si>
     <t>Kod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Spellogik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Testmiljöer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Grafik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Databas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Nätverkskommunikation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Animationer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Extra features</t>
+  </si>
+  <si>
+    <t>Testrapport</t>
+  </si>
+  <si>
+    <t>Projektanalys</t>
+  </si>
+  <si>
+    <t>summa:</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Sammanställning</t>
+  </si>
+  <si>
+    <t>Hanledningsmöten</t>
+  </si>
+  <si>
+    <t>Rolf</t>
+  </si>
+  <si>
+    <t>Samtliga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,16 +107,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -82,18 +160,203 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,101 +662,514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" customWidth="1"/>
+    <col min="1" max="1" width="39.54296875" customWidth="1"/>
     <col min="2" max="2" width="7.453125" customWidth="1"/>
     <col min="3" max="3" width="9.453125" customWidth="1"/>
-    <col min="5" max="15" width="3.6328125" style="2" customWidth="1"/>
+    <col min="5" max="16" width="3.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E4" s="3" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="12">
         <v>12</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="12">
         <v>13</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="12">
         <v>14</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="12">
         <v>15</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="12">
         <v>16</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="12">
         <v>17</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="12">
         <v>18</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="12">
         <v>19</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="12">
         <v>20</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="12">
         <v>21</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="12">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="P5" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="15">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="18"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="20"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="20"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="20"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="20"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B11" s="3">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="20"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="19"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="20"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="19" t="s">
         <v>9</v>
+      </c>
+      <c r="B14" s="3">
+        <v>100</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="20"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="20"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3">
+        <v>100</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="20"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="20"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3">
+        <v>80</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="20"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <v>100</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="20"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3">
+        <v>80</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="20"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="20"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="19"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="20"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="3">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="20"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="19"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="20"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="22">
+        <v>20</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="25"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="13" t="str">
+        <f>SUM(B6:B25) &amp; " h"</f>
+        <v>740 h</v>
       </c>
     </row>
   </sheetData>

--- a/Dokument/Gantt-schema/Gantt-schema.xlsx
+++ b/Dokument/Gantt-schema/Gantt-schema.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Milstolpar och aktiviteter" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -162,136 +167,136 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -299,9 +304,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,7 +422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,7 +457,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -662,200 +666,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="39.54296875" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" customWidth="1"/>
-    <col min="5" max="16" width="3.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="5" max="16" width="3.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E4" s="9" t="s">
+    <row r="1" spans="1:16">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" ht="16" thickBot="1">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E2" s="11">
         <v>12</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F2" s="11">
         <v>13</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G2" s="11">
         <v>14</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H2" s="11">
         <v>15</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I2" s="11">
         <v>16</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J2" s="11">
         <v>17</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K2" s="11">
         <v>18</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L2" s="11">
         <v>19</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M2" s="11">
         <v>20</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N2" s="11">
         <v>21</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O2" s="11">
         <v>22</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P2" s="11">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+    <row r="3" spans="1:16" ht="15">
+      <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B3" s="14">
         <v>5</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="18"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="20"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="19"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B5" s="2">
         <v>15</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="20"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="20"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="20"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3">
-        <v>40</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="19"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="18"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -864,36 +925,42 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="20"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="20"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -902,278 +969,217 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="20"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>80</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="19"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>80</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="19"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
         <v>100</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="20"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="19"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>80</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="19"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="20"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3">
-        <v>100</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="20"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>80</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="20"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="3">
-        <v>80</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="B18" s="2">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="20"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="3">
-        <v>100</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="20"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="3">
-        <v>80</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="19"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="18"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="19"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="5"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="4"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="20"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="19" t="s">
+      <c r="O20" s="4"/>
+      <c r="P20" s="19"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="18"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="19"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" thickBot="1">
+      <c r="A22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="21">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
-        <v>40</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="20"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="19"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="20"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="3">
-        <v>30</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="20"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="19"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="20"/>
-    </row>
-    <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="22">
-        <v>20</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="25"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="24"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="13" t="str">
-        <f>SUM(B6:B25) &amp; " h"</f>
+      <c r="B23" s="12" t="str">
+        <f>SUM(B3:B22) &amp; " h"</f>
         <v>740 h</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Dokument/Gantt-schema/Gantt-schema.xlsx
+++ b/Dokument/Gantt-schema/Gantt-schema.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Milstolpar och aktiviteter" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -669,24 +669,24 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="5" max="16" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="5" max="16" width="3.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:16" ht="16" thickBot="1">
+    <row r="2" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -736,7 +736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15">
+    <row r="3" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>21</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="O3" s="16"/>
       <c r="P3" s="17"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>19</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="19"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
@@ -804,7 +804,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="19"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
@@ -826,7 +826,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="19"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="19"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>20</v>
       </c>
@@ -870,7 +870,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="19"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="18"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -888,7 +888,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="19"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
@@ -908,12 +908,12 @@
       <c r="O10" s="4"/>
       <c r="P10" s="19"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -930,7 +930,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="19"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>10</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="19"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>11</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="19"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>14</v>
       </c>
@@ -996,7 +996,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="19"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="19"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>13</v>
       </c>
@@ -1040,7 +1040,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="19"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>15</v>
       </c>
@@ -1062,7 +1062,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="19"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>20</v>
       </c>
@@ -1084,7 +1084,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="19"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="18"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1102,7 +1102,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="19"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>16</v>
       </c>
@@ -1124,7 +1124,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="19"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1142,7 +1142,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="19"/>
     </row>
-    <row r="22" spans="1:16" ht="15" thickBot="1">
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="20" t="s">
         <v>17</v>
       </c>
@@ -1164,13 +1164,13 @@
       <c r="O22" s="23"/>
       <c r="P22" s="24"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="12" t="str">
         <f>SUM(B3:B22) &amp; " h"</f>
-        <v>740 h</v>
+        <v>760 h</v>
       </c>
     </row>
   </sheetData>
